--- a/data/trans_orig/P10_2_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P10_2_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58FEEA31-2FD4-4D4C-A549-6AD22F956FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5558E48-5FA1-47DD-8DF4-0175E3A57C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{034329DF-4AED-4E2C-B96E-B5EE013E2CA8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EE31F27C-493C-4217-8E96-6E434BBF7B7B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="488">
   <si>
     <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>1,73%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
   </si>
   <si>
     <t>2,87%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>98,27%</t>
   </si>
   <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
   </si>
   <si>
     <t>97,13%</t>
   </si>
   <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
   </si>
   <si>
     <t>97,72%</t>
   </si>
   <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1411 +140,1369 @@
     <t>2,63%</t>
   </si>
   <si>
-    <t>1,63%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
   </si>
   <si>
     <t>95,99%</t>
   </si>
   <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
   </si>
   <si>
     <t>4,53%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
   </si>
   <si>
     <t>95,47%</t>
   </si>
   <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
   </si>
   <si>
     <t>10,23%</t>
   </si>
   <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
   </si>
   <si>
     <t>89,77%</t>
   </si>
   <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
   </si>
   <si>
     <t>5,07%</t>
   </si>
   <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
   </si>
   <si>
     <t>94,93%</t>
   </si>
   <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
+    <t>88,15%</t>
   </si>
   <si>
     <t>91,52%</t>
   </si>
   <si>
-    <t>90,84%</t>
+    <t>90,77%</t>
   </si>
 </sst>
 </file>
@@ -1956,7 +1914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F565658-4F5B-41D6-8AEF-FAB0C6333655}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0121A1F8-2A17-413B-A608-5FA78FCE1113}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2238,10 +2196,10 @@
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -2250,13 +2208,13 @@
         <v>37658</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -2265,13 +2223,13 @@
         <v>57027</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2286,13 +2244,13 @@
         <v>716120</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
         <v>557</v>
@@ -2301,13 +2259,13 @@
         <v>587836</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1242</v>
@@ -2316,13 +2274,13 @@
         <v>1303955</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,7 +2336,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2390,13 +2348,13 @@
         <v>25876</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -2405,13 +2363,13 @@
         <v>35661</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>58</v>
@@ -2420,13 +2378,13 @@
         <v>61537</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,13 +2399,13 @@
         <v>612792</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>623</v>
@@ -2456,13 +2414,13 @@
         <v>654083</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1213</v>
@@ -2471,13 +2429,13 @@
         <v>1266875</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,7 +2491,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2545,13 +2503,13 @@
         <v>23828</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -2560,13 +2518,13 @@
         <v>50362</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -2575,13 +2533,13 @@
         <v>74190</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,13 +2554,13 @@
         <v>495319</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>453</v>
@@ -2611,13 +2569,13 @@
         <v>465280</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>915</v>
@@ -2626,13 +2584,13 @@
         <v>960599</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,7 +2646,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2700,13 +2658,13 @@
         <v>28853</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -2715,13 +2673,13 @@
         <v>39585</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>70</v>
@@ -2730,13 +2688,13 @@
         <v>68439</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,13 +2709,13 @@
         <v>357857</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>356</v>
@@ -2766,13 +2724,13 @@
         <v>364401</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>718</v>
@@ -2781,13 +2739,13 @@
         <v>722257</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,7 +2801,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2855,13 +2813,13 @@
         <v>64055</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>105</v>
@@ -2870,13 +2828,13 @@
         <v>110141</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>173</v>
@@ -2885,13 +2843,13 @@
         <v>174196</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,13 +2864,13 @@
         <v>438411</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>556</v>
@@ -2921,13 +2879,13 @@
         <v>566701</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>1011</v>
@@ -2936,13 +2894,13 @@
         <v>1005112</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,13 +2968,13 @@
         <v>170534</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>277</v>
@@ -3025,13 +2983,13 @@
         <v>286810</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>445</v>
@@ -3040,13 +2998,13 @@
         <v>457343</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,13 +3019,13 @@
         <v>3106010</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>3020</v>
@@ -3076,28 +3034,28 @@
         <v>3092388</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>6066</v>
       </c>
       <c r="N23" s="7">
-        <v>6198397</v>
+        <v>6198398</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3139,7 +3097,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3153,7 +3111,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3175,7 +3133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4DB100-C496-45E3-88F2-79FDA5072C50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A32CAF-E419-4CE1-91C8-426560666F14}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3192,7 +3150,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3299,13 +3257,13 @@
         <v>9197</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -3314,13 +3272,13 @@
         <v>19411</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -3329,13 +3287,13 @@
         <v>28608</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,13 +3308,13 @@
         <v>444949</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H5" s="7">
         <v>402</v>
@@ -3365,10 +3323,10 @@
         <v>410819</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>158</v>
@@ -3597,7 +3555,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3609,7 +3567,7 @@
         <v>30624</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>180</v>
@@ -3660,7 +3618,7 @@
         <v>650302</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>188</v>
@@ -3752,7 +3710,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3764,13 +3722,13 @@
         <v>39833</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>72</v>
@@ -3779,13 +3737,13 @@
         <v>80035</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>107</v>
@@ -3794,13 +3752,13 @@
         <v>119868</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +3773,13 @@
         <v>573730</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="H14" s="7">
         <v>467</v>
@@ -3830,13 +3788,13 @@
         <v>536164</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M14" s="7">
         <v>979</v>
@@ -3845,13 +3803,13 @@
         <v>1109894</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,7 +3865,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3919,13 +3877,13 @@
         <v>39614</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H16" s="7">
         <v>83</v>
@@ -3934,13 +3892,13 @@
         <v>88035</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M16" s="7">
         <v>121</v>
@@ -3949,13 +3907,13 @@
         <v>127649</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3970,13 +3928,13 @@
         <v>389815</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H17" s="7">
         <v>322</v>
@@ -3985,13 +3943,13 @@
         <v>358710</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M17" s="7">
         <v>677</v>
@@ -4000,13 +3958,13 @@
         <v>748525</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,7 +4020,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4074,13 +4032,13 @@
         <v>93092</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H19" s="7">
         <v>187</v>
@@ -4089,13 +4047,13 @@
         <v>199203</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M19" s="7">
         <v>268</v>
@@ -4104,13 +4062,13 @@
         <v>292295</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,13 +4083,13 @@
         <v>466545</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H20" s="7">
         <v>506</v>
@@ -4140,13 +4098,13 @@
         <v>542827</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M20" s="7">
         <v>929</v>
@@ -4155,13 +4113,13 @@
         <v>1009372</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,13 +4187,13 @@
         <v>230586</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H22" s="7">
         <v>462</v>
@@ -4244,13 +4202,13 @@
         <v>496210</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M22" s="7">
         <v>671</v>
@@ -4259,13 +4217,13 @@
         <v>726796</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,13 +4238,13 @@
         <v>3194202</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H23" s="7">
         <v>2834</v>
@@ -4295,13 +4253,13 @@
         <v>3060099</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M23" s="7">
         <v>5832</v>
@@ -4310,13 +4268,13 @@
         <v>6254301</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,7 +4330,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4394,7 +4352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F193CDF-46E1-449C-83AC-06C7271FE7CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDFF3CA-7BF3-43BE-992D-FE51D02A9FE0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4411,7 +4369,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4518,13 +4476,13 @@
         <v>9315</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>266</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -4533,13 +4491,13 @@
         <v>8845</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -4548,13 +4506,13 @@
         <v>18160</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4527,13 @@
         <v>410148</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>156</v>
+        <v>276</v>
       </c>
       <c r="H5" s="7">
         <v>395</v>
@@ -4584,13 +4542,13 @@
         <v>386910</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M5" s="7">
         <v>779</v>
@@ -4599,13 +4557,13 @@
         <v>797058</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,13 +4631,13 @@
         <v>21957</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>286</v>
+        <v>17</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -4688,13 +4646,13 @@
         <v>22237</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>290</v>
+        <v>57</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -4703,13 +4661,13 @@
         <v>44194</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,13 +4682,13 @@
         <v>568539</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>296</v>
+        <v>27</v>
       </c>
       <c r="H8" s="7">
         <v>556</v>
@@ -4739,13 +4697,13 @@
         <v>541307</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>298</v>
+        <v>65</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="M8" s="7">
         <v>1103</v>
@@ -4754,13 +4712,13 @@
         <v>1109846</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,7 +4774,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4828,13 +4786,13 @@
         <v>22332</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -4843,13 +4801,13 @@
         <v>39386</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>307</v>
+        <v>164</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -4858,13 +4816,13 @@
         <v>61718</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>197</v>
+        <v>302</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,13 +4837,13 @@
         <v>646765</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H11" s="7">
         <v>625</v>
@@ -4894,13 +4852,13 @@
         <v>622000</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>315</v>
+        <v>172</v>
       </c>
       <c r="M11" s="7">
         <v>1242</v>
@@ -4909,13 +4867,13 @@
         <v>1268765</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>309</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>257</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,7 +4929,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4983,13 +4941,13 @@
         <v>40925</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="H13" s="7">
         <v>59</v>
@@ -4998,28 +4956,28 @@
         <v>62154</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="M13" s="7">
         <v>96</v>
       </c>
       <c r="N13" s="7">
-        <v>103079</v>
+        <v>103080</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,13 +4992,13 @@
         <v>605123</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H14" s="7">
         <v>543</v>
@@ -5049,13 +5007,13 @@
         <v>586923</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="M14" s="7">
         <v>1088</v>
@@ -5064,13 +5022,13 @@
         <v>1192046</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5112,7 +5070,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5126,7 +5084,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5138,13 +5096,13 @@
         <v>27136</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H16" s="7">
         <v>69</v>
@@ -5153,13 +5111,13 @@
         <v>79290</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="M16" s="7">
         <v>93</v>
@@ -5168,13 +5126,13 @@
         <v>106427</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,13 +5147,13 @@
         <v>450782</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H17" s="7">
         <v>364</v>
@@ -5204,13 +5162,13 @@
         <v>417559</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M17" s="7">
         <v>764</v>
@@ -5219,13 +5177,13 @@
         <v>868340</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,7 +5239,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5293,13 +5251,13 @@
         <v>59743</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>353</v>
+        <v>113</v>
       </c>
       <c r="H19" s="7">
         <v>139</v>
@@ -5308,13 +5266,13 @@
         <v>166199</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="M19" s="7">
         <v>201</v>
@@ -5323,13 +5281,13 @@
         <v>225943</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,13 +5302,13 @@
         <v>531585</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>361</v>
+        <v>123</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="H20" s="7">
         <v>516</v>
@@ -5359,13 +5317,13 @@
         <v>611732</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="M20" s="7">
         <v>1081</v>
@@ -5374,13 +5332,13 @@
         <v>1143316</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,13 +5406,13 @@
         <v>181408</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H22" s="7">
         <v>339</v>
@@ -5463,13 +5421,13 @@
         <v>378113</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="M22" s="7">
         <v>512</v>
@@ -5478,13 +5436,13 @@
         <v>559521</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,13 +5457,13 @@
         <v>3212942</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="H23" s="7">
         <v>2999</v>
@@ -5514,13 +5472,13 @@
         <v>3166429</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="M23" s="7">
         <v>6057</v>
@@ -5529,13 +5487,13 @@
         <v>6379371</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5591,7 +5549,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5613,7 +5571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9841C5D3-3E13-44D4-A3EE-47161BC2485F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65711590-0CF2-4951-99EF-AC1DCC1EC7F3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5630,7 +5588,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5737,13 +5695,13 @@
         <v>3499</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -5752,13 +5710,13 @@
         <v>21062</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -5767,13 +5725,13 @@
         <v>24561</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>394</v>
+        <v>273</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5746,13 @@
         <v>374180</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="H5" s="7">
         <v>197</v>
@@ -5803,13 +5761,13 @@
         <v>333895</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="M5" s="7">
         <v>367</v>
@@ -5818,13 +5776,13 @@
         <v>708075</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>403</v>
+        <v>281</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,10 +5853,10 @@
         <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -5907,13 +5865,13 @@
         <v>30726</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -5922,13 +5880,13 @@
         <v>43011</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>197</v>
+        <v>302</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5946,10 +5904,10 @@
         <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="H8" s="7">
         <v>438</v>
@@ -5958,13 +5916,13 @@
         <v>467851</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="M8" s="7">
         <v>732</v>
@@ -5973,13 +5931,13 @@
         <v>883962</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>207</v>
+        <v>309</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,7 +5993,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6047,13 +6005,13 @@
         <v>29533</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>421</v>
+        <v>13</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>422</v>
+        <v>167</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -6062,13 +6020,13 @@
         <v>31688</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -6077,13 +6035,13 @@
         <v>61221</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>38</v>
+        <v>417</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,13 +6056,13 @@
         <v>527719</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>429</v>
+        <v>175</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>430</v>
+        <v>22</v>
       </c>
       <c r="H11" s="7">
         <v>801</v>
@@ -6113,13 +6071,13 @@
         <v>551788</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="M11" s="7">
         <v>1321</v>
@@ -6128,13 +6086,13 @@
         <v>1079506</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>47</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,7 +6148,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6202,13 +6160,13 @@
         <v>44130</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="H13" s="7">
         <v>91</v>
@@ -6217,13 +6175,13 @@
         <v>68404</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="M13" s="7">
         <v>128</v>
@@ -6232,13 +6190,13 @@
         <v>112534</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>443</v>
+        <v>400</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,13 +6211,13 @@
         <v>679860</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="H14" s="7">
         <v>1050</v>
@@ -6268,28 +6226,28 @@
         <v>678857</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="M14" s="7">
         <v>1678</v>
       </c>
       <c r="N14" s="7">
-        <v>1358718</v>
+        <v>1358717</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>453</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,7 +6289,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6345,7 +6303,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6357,13 +6315,13 @@
         <v>46834</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>455</v>
+        <v>300</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="H16" s="7">
         <v>120</v>
@@ -6372,13 +6330,13 @@
         <v>75156</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="M16" s="7">
         <v>169</v>
@@ -6387,13 +6345,13 @@
         <v>121990</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>78</v>
+        <v>448</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6408,13 +6366,13 @@
         <v>553323</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>464</v>
+        <v>307</v>
       </c>
       <c r="H17" s="7">
         <v>881</v>
@@ -6423,13 +6381,13 @@
         <v>521562</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M17" s="7">
         <v>1495</v>
@@ -6438,13 +6396,13 @@
         <v>1074885</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>86</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6500,7 +6458,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6512,13 +6470,13 @@
         <v>63059</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="H19" s="7">
         <v>318</v>
@@ -6527,13 +6485,13 @@
         <v>183061</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="M19" s="7">
         <v>412</v>
@@ -6542,13 +6500,13 @@
         <v>246119</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,13 +6521,13 @@
         <v>633409</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="H20" s="7">
         <v>1387</v>
@@ -6578,13 +6536,13 @@
         <v>841911</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="M20" s="7">
         <v>2319</v>
@@ -6593,13 +6551,13 @@
         <v>1475321</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6667,13 +6625,13 @@
         <v>199340</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="H22" s="7">
         <v>606</v>
@@ -6682,13 +6640,13 @@
         <v>410097</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>491</v>
+        <v>95</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>492</v>
+        <v>319</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>374</v>
+        <v>479</v>
       </c>
       <c r="M22" s="7">
         <v>822</v>
@@ -6697,13 +6655,13 @@
         <v>609436</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,13 +6676,13 @@
         <v>3184602</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="H23" s="7">
         <v>4754</v>
@@ -6733,13 +6691,13 @@
         <v>3395864</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>498</v>
+        <v>103</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>382</v>
+        <v>485</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>499</v>
+        <v>327</v>
       </c>
       <c r="M23" s="7">
         <v>7912</v>
@@ -6748,13 +6706,13 @@
         <v>6580466</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6810,7 +6768,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P10_2_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P10_2_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5558E48-5FA1-47DD-8DF4-0175E3A57C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E3447F2-5AD8-495F-BF23-F205097B56EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EE31F27C-493C-4217-8E96-6E434BBF7B7B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{784EA60E-8AC0-445B-920F-4E97029ED897}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="500">
   <si>
     <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1432 +77,1468 @@
     <t>1,73%</t>
   </si>
   <si>
-    <t>0,75%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
   </si>
   <si>
     <t>3,6%</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,27%</t>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
   </si>
   <si>
     <t>96,4%</t>
   </si>
   <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
   </si>
   <si>
     <t>10,78%</t>
   </si>
   <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
   </si>
   <si>
     <t>89,22%</t>
   </si>
   <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
+    <t>88,15%</t>
   </si>
   <si>
     <t>90,4%</t>
   </si>
   <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
   </si>
   <si>
     <t>92,18%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
   </si>
 </sst>
 </file>
@@ -1914,7 +1950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0121A1F8-2A17-413B-A608-5FA78FCE1113}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4AE04B2-29E4-478C-8186-DF401CE2F0DC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2196,10 +2232,10 @@
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -2208,10 +2244,10 @@
         <v>37658</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>36</v>
@@ -2250,7 +2286,7 @@
         <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>557</v>
@@ -2259,13 +2295,13 @@
         <v>587836</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>1242</v>
@@ -2676,10 +2712,10 @@
         <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>70</v>
@@ -2688,13 +2724,13 @@
         <v>68439</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,13 +2745,13 @@
         <v>357857</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>356</v>
@@ -2724,13 +2760,13 @@
         <v>364401</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="M17" s="7">
         <v>718</v>
@@ -2739,13 +2775,13 @@
         <v>722257</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,7 +2837,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2813,13 +2849,13 @@
         <v>64055</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>105</v>
@@ -2828,13 +2864,13 @@
         <v>110141</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>173</v>
@@ -2843,13 +2879,13 @@
         <v>174196</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,13 +2900,13 @@
         <v>438411</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>556</v>
@@ -2879,13 +2915,13 @@
         <v>566701</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>1011</v>
@@ -2894,13 +2930,13 @@
         <v>1005112</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,13 +3004,13 @@
         <v>170534</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>277</v>
@@ -2983,13 +3019,13 @@
         <v>286810</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>445</v>
@@ -2998,13 +3034,13 @@
         <v>457343</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,16 +3052,16 @@
         <v>3046</v>
       </c>
       <c r="D23" s="7">
-        <v>3106010</v>
+        <v>3106009</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>3020</v>
@@ -3034,13 +3070,13 @@
         <v>3092388</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>6066</v>
@@ -3049,13 +3085,13 @@
         <v>6198398</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,7 +3103,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3111,7 +3147,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3133,7 +3169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A32CAF-E419-4CE1-91C8-426560666F14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30B492E-82CA-4BFB-9057-FACA7F7CC8D5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3150,7 +3186,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3257,13 +3293,13 @@
         <v>9197</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -3272,13 +3308,13 @@
         <v>19411</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -3287,13 +3323,13 @@
         <v>28608</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,13 +3344,13 @@
         <v>444949</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H5" s="7">
         <v>402</v>
@@ -3323,13 +3359,13 @@
         <v>410819</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M5" s="7">
         <v>838</v>
@@ -3338,13 +3374,13 @@
         <v>855768</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,13 +3448,13 @@
         <v>18226</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -3427,13 +3463,13 @@
         <v>30542</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -3442,13 +3478,13 @@
         <v>48768</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,13 +3499,13 @@
         <v>668861</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H8" s="7">
         <v>543</v>
@@ -3478,13 +3514,13 @@
         <v>579713</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M8" s="7">
         <v>1193</v>
@@ -3493,13 +3529,13 @@
         <v>1248574</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,13 +3603,13 @@
         <v>30624</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H10" s="7">
         <v>73</v>
@@ -3582,13 +3618,13 @@
         <v>78984</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>101</v>
@@ -3597,13 +3633,13 @@
         <v>109608</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,13 +3654,13 @@
         <v>650302</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H11" s="7">
         <v>594</v>
@@ -3633,13 +3669,13 @@
         <v>631866</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M11" s="7">
         <v>1216</v>
@@ -3648,13 +3684,13 @@
         <v>1282167</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,10 +3758,10 @@
         <v>39833</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>196</v>
@@ -3773,13 +3809,13 @@
         <v>573730</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>25</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>467</v>
@@ -3788,13 +3824,13 @@
         <v>536164</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>979</v>
@@ -3803,13 +3839,13 @@
         <v>1109894</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,13 +3913,13 @@
         <v>39614</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7">
         <v>83</v>
@@ -3892,13 +3928,13 @@
         <v>88035</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M16" s="7">
         <v>121</v>
@@ -3907,13 +3943,13 @@
         <v>127649</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,13 +3964,13 @@
         <v>389815</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H17" s="7">
         <v>322</v>
@@ -3943,13 +3979,13 @@
         <v>358710</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M17" s="7">
         <v>677</v>
@@ -3958,13 +3994,13 @@
         <v>748525</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,7 +4056,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4032,13 +4068,13 @@
         <v>93092</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H19" s="7">
         <v>187</v>
@@ -4047,13 +4083,13 @@
         <v>199203</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M19" s="7">
         <v>268</v>
@@ -4062,13 +4098,13 @@
         <v>292295</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,13 +4119,13 @@
         <v>466545</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H20" s="7">
         <v>506</v>
@@ -4098,13 +4134,13 @@
         <v>542827</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M20" s="7">
         <v>929</v>
@@ -4113,13 +4149,13 @@
         <v>1009372</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4223,13 @@
         <v>230586</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H22" s="7">
         <v>462</v>
@@ -4202,13 +4238,13 @@
         <v>496210</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M22" s="7">
         <v>671</v>
@@ -4217,13 +4253,13 @@
         <v>726796</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,13 +4274,13 @@
         <v>3194202</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H23" s="7">
         <v>2834</v>
@@ -4253,13 +4289,13 @@
         <v>3060099</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M23" s="7">
         <v>5832</v>
@@ -4268,13 +4304,13 @@
         <v>6254301</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,7 +4366,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4352,7 +4388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDFF3CA-7BF3-43BE-992D-FE51D02A9FE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78088DBF-C535-4323-95E2-2A205177E22A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4369,7 +4405,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4476,13 +4512,13 @@
         <v>9315</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -4491,13 +4527,13 @@
         <v>8845</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>269</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>270</v>
+        <v>49</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -4545,10 +4581,10 @@
         <v>277</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>278</v>
+        <v>58</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M5" s="7">
         <v>779</v>
@@ -4557,13 +4593,13 @@
         <v>797058</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,13 +4667,13 @@
         <v>21957</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -4646,13 +4682,13 @@
         <v>22237</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>57</v>
+        <v>284</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -4661,13 +4697,13 @@
         <v>44194</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,13 +4718,13 @@
         <v>568539</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="H8" s="7">
         <v>556</v>
@@ -4697,13 +4733,13 @@
         <v>541307</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M8" s="7">
         <v>1103</v>
@@ -4712,13 +4748,13 @@
         <v>1109846</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4822,13 @@
         <v>22332</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -4801,13 +4837,13 @@
         <v>39386</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -4816,13 +4852,13 @@
         <v>61718</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,7 +4894,7 @@
         <v>308</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>172</v>
+        <v>309</v>
       </c>
       <c r="M11" s="7">
         <v>1242</v>
@@ -4867,13 +4903,13 @@
         <v>1268765</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,13 +4977,13 @@
         <v>40925</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H13" s="7">
         <v>59</v>
@@ -4956,28 +4992,28 @@
         <v>62154</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M13" s="7">
         <v>96</v>
       </c>
       <c r="N13" s="7">
-        <v>103080</v>
+        <v>103079</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,13 +5028,13 @@
         <v>605123</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H14" s="7">
         <v>543</v>
@@ -5007,13 +5043,13 @@
         <v>586923</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M14" s="7">
         <v>1088</v>
@@ -5022,13 +5058,13 @@
         <v>1192046</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,7 +5106,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5096,13 +5132,13 @@
         <v>27136</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H16" s="7">
         <v>69</v>
@@ -5111,13 +5147,13 @@
         <v>79290</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M16" s="7">
         <v>93</v>
@@ -5126,13 +5162,13 @@
         <v>106427</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,13 +5183,13 @@
         <v>450782</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H17" s="7">
         <v>364</v>
@@ -5162,13 +5198,13 @@
         <v>417559</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M17" s="7">
         <v>764</v>
@@ -5177,13 +5213,13 @@
         <v>868340</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,7 +5275,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5251,13 +5287,13 @@
         <v>59743</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>139</v>
@@ -5266,13 +5302,13 @@
         <v>166199</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M19" s="7">
         <v>201</v>
@@ -5281,13 +5317,13 @@
         <v>225943</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,13 +5338,13 @@
         <v>531585</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H20" s="7">
         <v>516</v>
@@ -5317,13 +5353,13 @@
         <v>611732</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M20" s="7">
         <v>1081</v>
@@ -5332,13 +5368,13 @@
         <v>1143316</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,13 +5442,13 @@
         <v>181408</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H22" s="7">
         <v>339</v>
@@ -5421,13 +5457,13 @@
         <v>378113</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M22" s="7">
         <v>512</v>
@@ -5436,13 +5472,13 @@
         <v>559521</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,13 +5493,13 @@
         <v>3212942</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H23" s="7">
         <v>2999</v>
@@ -5472,13 +5508,13 @@
         <v>3166429</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M23" s="7">
         <v>6057</v>
@@ -5487,13 +5523,13 @@
         <v>6379371</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5549,7 +5585,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5571,7 +5607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65711590-0CF2-4951-99EF-AC1DCC1EC7F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26E1224-67BE-4D54-B36F-AA26A1C100E0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5588,7 +5624,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5695,13 +5731,13 @@
         <v>3499</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -5710,13 +5746,13 @@
         <v>21062</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -5725,13 +5761,13 @@
         <v>24561</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>273</v>
+        <v>390</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5746,13 +5782,13 @@
         <v>374180</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="H5" s="7">
         <v>197</v>
@@ -5761,13 +5797,13 @@
         <v>333895</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="M5" s="7">
         <v>367</v>
@@ -5776,13 +5812,13 @@
         <v>708075</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>281</v>
+        <v>399</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5853,10 +5889,10 @@
         <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -5865,13 +5901,13 @@
         <v>30726</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -5880,13 +5916,13 @@
         <v>43011</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5904,10 +5940,10 @@
         <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="H8" s="7">
         <v>438</v>
@@ -5916,13 +5952,13 @@
         <v>467851</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="M8" s="7">
         <v>732</v>
@@ -5931,13 +5967,13 @@
         <v>883962</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6005,13 +6041,13 @@
         <v>29533</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>13</v>
+        <v>417</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>167</v>
+        <v>418</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -6020,13 +6056,13 @@
         <v>31688</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -6035,13 +6071,13 @@
         <v>61221</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6056,13 +6092,13 @@
         <v>527719</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>175</v>
+        <v>426</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>22</v>
+        <v>427</v>
       </c>
       <c r="H11" s="7">
         <v>801</v>
@@ -6071,13 +6107,13 @@
         <v>551788</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="M11" s="7">
         <v>1321</v>
@@ -6086,13 +6122,13 @@
         <v>1079506</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6160,13 +6196,13 @@
         <v>44130</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="H13" s="7">
         <v>91</v>
@@ -6175,13 +6211,13 @@
         <v>68404</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="M13" s="7">
         <v>128</v>
@@ -6190,13 +6226,13 @@
         <v>112534</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>433</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,13 +6247,13 @@
         <v>679860</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="H14" s="7">
         <v>1050</v>
@@ -6226,13 +6262,13 @@
         <v>678857</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="M14" s="7">
         <v>1678</v>
@@ -6241,13 +6277,13 @@
         <v>1358717</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>441</v>
+        <v>379</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6315,13 +6351,13 @@
         <v>46834</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="H16" s="7">
         <v>120</v>
@@ -6330,13 +6366,13 @@
         <v>75156</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="M16" s="7">
         <v>169</v>
@@ -6345,13 +6381,13 @@
         <v>121990</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,10 +6402,10 @@
         <v>553323</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>307</v>
@@ -6381,13 +6417,13 @@
         <v>521562</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="M17" s="7">
         <v>1495</v>
@@ -6396,13 +6432,13 @@
         <v>1074885</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6458,7 +6494,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6470,13 +6506,13 @@
         <v>63059</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="H19" s="7">
         <v>318</v>
@@ -6485,13 +6521,13 @@
         <v>183061</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="M19" s="7">
         <v>412</v>
@@ -6500,13 +6536,13 @@
         <v>246119</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6521,13 +6557,13 @@
         <v>633409</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="H20" s="7">
         <v>1387</v>
@@ -6536,13 +6572,13 @@
         <v>841911</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="M20" s="7">
         <v>2319</v>
@@ -6551,13 +6587,13 @@
         <v>1475321</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6625,13 +6661,13 @@
         <v>199340</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="H22" s="7">
         <v>606</v>
@@ -6640,13 +6676,13 @@
         <v>410097</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>95</v>
+        <v>485</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="M22" s="7">
         <v>822</v>
@@ -6655,13 +6691,13 @@
         <v>609436</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>348</v>
+        <v>489</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6676,13 +6712,13 @@
         <v>3184602</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="H23" s="7">
         <v>4754</v>
@@ -6691,13 +6727,13 @@
         <v>3395864</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>103</v>
+        <v>494</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>327</v>
+        <v>496</v>
       </c>
       <c r="M23" s="7">
         <v>7912</v>
@@ -6706,13 +6742,13 @@
         <v>6580466</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>356</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6768,7 +6804,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
